--- a/KAVAC TALENTO HUMANO/formatos carga masiva/datos-socioeconomicos.xlsx
+++ b/KAVAC TALENTO HUMANO/formatos carga masiva/datos-socioeconomicos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Cédula del Trabajador</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Tipo de discapacidad</t>
   </si>
   <si>
+    <t>Soltero(a)</t>
+  </si>
+  <si>
     <t>Estado civil</t>
   </si>
   <si>
@@ -86,10 +89,16 @@
     <t>tipo de beca</t>
   </si>
   <si>
-    <t>Soltero(a)</t>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>Discapacidad física o motora</t>
   </si>
   <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>BECAS PARA HIJOS ESTUDIANTES</t>
   </si>
   <si>
     <t>Padre</t>
@@ -101,7 +110,16 @@
     <t>Casado(a)</t>
   </si>
   <si>
+    <t>Bachillerato</t>
+  </si>
+  <si>
+    <t>Discapacidad visual</t>
+  </si>
+  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>BECA PARA TRABAJADORES ESTUDIANTES</t>
   </si>
   <si>
     <t>Madre</t>
@@ -113,16 +131,49 @@
     <t>Divorciado(a)</t>
   </si>
   <si>
+    <t>Técnico Medio</t>
+  </si>
+  <si>
+    <t>Discapacidad auditiva</t>
+  </si>
+  <si>
     <t>Hijo(a)</t>
   </si>
   <si>
     <t>Viudo(a)</t>
   </si>
   <si>
+    <t>TSU Universitario</t>
+  </si>
+  <si>
+    <t>Discapacidad intelectual</t>
+  </si>
+  <si>
     <t>Esposo(a)</t>
   </si>
   <si>
+    <t>Pregrado</t>
+  </si>
+  <si>
+    <t>Discapacidad psicosocial o mental</t>
+  </si>
+  <si>
     <t>UNION ESTABLE DE HECHO</t>
+  </si>
+  <si>
+    <t>Postgrado</t>
+  </si>
+  <si>
+    <t>Discapacidad del desarrollo</t>
+  </si>
+  <si>
+    <t>Doctorado</t>
+  </si>
+  <si>
+    <t>Discapacidad del lenguaje y la comunicación</t>
+  </si>
+  <si>
+    <t>Discapacidad múltiple</t>
   </si>
 </sst>
 </file>
@@ -539,7 +590,12 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2"/>
+      <c r="A2">
+        <v>18456345</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
       <c r="C2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -55577,7 +55633,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -55587,19 +55643,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -55610,51 +55666,108 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
